--- a/output/Solution Sienna 2.xlsx
+++ b/output/Solution Sienna 2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Share-ECAQ</t>
   </si>
@@ -80,22 +80,13 @@
     <t>Share-ROOM</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>benefit</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
     <t>total cost</t>
   </si>
   <si>
-    <t>total profit</t>
+    <t>total return</t>
   </si>
 </sst>
 </file>
@@ -414,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,306 +416,115 @@
     <col min="1" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>31.66</v>
-      </c>
-      <c r="C2" s="1">
-        <v>39.49</v>
-      </c>
-      <c r="D2" s="1">
-        <f>(B2*C2)/100</f>
-        <v>12.502534000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>26.32</v>
-      </c>
-      <c r="C3" s="1">
-        <v>39.4</v>
-      </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D19" si="0">(B3*C3)/100</f>
-        <v>10.37008</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>18.309999999999999</v>
-      </c>
-      <c r="C4" s="1">
-        <v>39.82</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>7.291042</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>25.32</v>
-      </c>
-      <c r="C5" s="1">
-        <v>39.78</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>10.072296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>19.940000000000001</v>
-      </c>
-      <c r="C6" s="1">
-        <v>39.909999999999997</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>7.9580539999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>22.55</v>
-      </c>
-      <c r="C7" s="1">
-        <v>39.1</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>8.8170500000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>38.549999999999997</v>
-      </c>
-      <c r="C8" s="1">
-        <v>39.72</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>15.312059999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>27.7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>39.97</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>11.071689999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>33.06</v>
-      </c>
-      <c r="C10" s="1">
-        <v>39.909999999999997</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>13.194246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>29.08</v>
-      </c>
-      <c r="C11" s="1">
-        <v>39.93</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>11.611643999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>48.69</v>
-      </c>
-      <c r="C12" s="1">
-        <v>39.93</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>19.441917</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
-        <v>35.29</v>
-      </c>
-      <c r="C13" s="1">
-        <v>39.43</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>13.914847</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
-        <v>32.57</v>
-      </c>
-      <c r="C14" s="1">
-        <v>39.54</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>12.878178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
-        <v>27.42</v>
-      </c>
-      <c r="C15" s="1">
-        <v>38.99</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>10.691058</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
-        <v>14.83</v>
-      </c>
-      <c r="C16" s="1">
-        <v>39.79</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>5.9008569999999994</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
-        <v>29.49</v>
-      </c>
-      <c r="C17" s="1">
-        <v>39.35</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>11.604315</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
-        <v>13.42</v>
-      </c>
-      <c r="C18" s="1">
-        <v>39.51</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>5.3022419999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
-        <v>15.06</v>
-      </c>
-      <c r="C19" s="1">
-        <v>39.229999999999997</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>5.9080380000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
-        <f>SUM(B2:B19)</f>
-        <v>489.26000000000005</v>
+        <v>489.24</v>
       </c>
       <c r="C22" s="1">
-        <f>SUM(D2:D19)</f>
-        <v>193.84214800000001</v>
+        <v>193.78</v>
       </c>
     </row>
   </sheetData>
